--- a/Outputs/3. Prosumer percentage/Base Cases/75/Output_0_40.xlsx
+++ b/Outputs/3. Prosumer percentage/Base Cases/75/Output_0_40.xlsx
@@ -26320,19 +26320,19 @@
         <v>648009.6978780745</v>
       </c>
       <c r="E2" t="n">
-        <v>589731.4830186393</v>
+        <v>589731.4830186394</v>
       </c>
       <c r="F2" t="n">
-        <v>635736.7559670313</v>
+        <v>635736.7559670315</v>
       </c>
       <c r="G2" t="n">
-        <v>646542.1793771706</v>
+        <v>646542.1793771707</v>
       </c>
       <c r="H2" t="n">
-        <v>646542.1793771706</v>
+        <v>646542.1793771707</v>
       </c>
       <c r="I2" t="n">
-        <v>646542.1793771706</v>
+        <v>646542.1793771707</v>
       </c>
       <c r="J2" t="n">
         <v>580999.8688344109</v>
@@ -26341,13 +26341,13 @@
         <v>646380.4005536368</v>
       </c>
       <c r="L2" t="n">
-        <v>649890.1919143671</v>
+        <v>649890.1919143673</v>
       </c>
       <c r="M2" t="n">
-        <v>649890.1919143671</v>
+        <v>649890.1919143673</v>
       </c>
       <c r="N2" t="n">
-        <v>649890.1919143671</v>
+        <v>649890.1919143673</v>
       </c>
       <c r="O2" t="n">
         <v>580999.8688344109</v>
@@ -26430,13 +26430,13 @@
         <v>362857.6090345054</v>
       </c>
       <c r="G4" t="n">
-        <v>369024.9889545866</v>
+        <v>369024.9889545867</v>
       </c>
       <c r="H4" t="n">
-        <v>369024.9889545866</v>
+        <v>369024.9889545867</v>
       </c>
       <c r="I4" t="n">
-        <v>369024.9889545866</v>
+        <v>369024.9889545867</v>
       </c>
       <c r="J4" t="n">
         <v>331615.5960401139</v>
@@ -26445,13 +26445,13 @@
         <v>368932.6509285893</v>
       </c>
       <c r="L4" t="n">
-        <v>370935.9242794079</v>
+        <v>370935.9242794078</v>
       </c>
       <c r="M4" t="n">
-        <v>370935.9242794079</v>
+        <v>370935.9242794078</v>
       </c>
       <c r="N4" t="n">
-        <v>370935.9242794079</v>
+        <v>370935.9242794078</v>
       </c>
       <c r="O4" t="n">
         <v>331615.5960401139</v>
@@ -26528,40 +26528,40 @@
         <v>244519.4976803848</v>
       </c>
       <c r="E6" t="n">
-        <v>-28681.42478522933</v>
+        <v>-28681.42478522921</v>
       </c>
       <c r="F6" t="n">
-        <v>192016.288922796</v>
+        <v>192016.2889227961</v>
       </c>
       <c r="G6" t="n">
-        <v>230544.2219352848</v>
+        <v>230544.2219352849</v>
       </c>
       <c r="H6" t="n">
-        <v>244147.908707451</v>
+        <v>244147.9087074511</v>
       </c>
       <c r="I6" t="n">
-        <v>244147.908707451</v>
+        <v>244147.9087074511</v>
       </c>
       <c r="J6" t="n">
         <v>39795.17757033982</v>
       </c>
       <c r="K6" t="n">
-        <v>124109.6988239111</v>
+        <v>124109.698823911</v>
       </c>
       <c r="L6" t="n">
-        <v>224929.5865966664</v>
+        <v>224929.5865966665</v>
       </c>
       <c r="M6" t="n">
-        <v>244936.5032995198</v>
+        <v>244936.50329952</v>
       </c>
       <c r="N6" t="n">
-        <v>244936.5032995198</v>
+        <v>244936.50329952</v>
       </c>
       <c r="O6" t="n">
         <v>117268.4486643694</v>
       </c>
       <c r="P6" t="n">
-        <v>164612.4064344326</v>
+        <v>164612.4064344327</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/3. Prosumer percentage/Base Cases/75/Output_0_40.xlsx
+++ b/Outputs/3. Prosumer percentage/Base Cases/75/Output_0_40.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1640982.468935381</v>
+        <v>1611371.492515084</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1228393.148512794</v>
+        <v>340528.8729729601</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5404238.615321337</v>
+        <v>5574392.937624535</v>
       </c>
     </row>
     <row r="11">
@@ -23255,22 +23257,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>87.35019091623457</v>
+        <v>26.19627001166145</v>
       </c>
       <c r="C11" t="n">
-        <v>87.25456782825256</v>
+        <v>26.10064692367945</v>
       </c>
       <c r="D11" t="n">
-        <v>81.65051365626005</v>
+        <v>20.49659275168693</v>
       </c>
       <c r="E11" t="n">
-        <v>91.42803637666225</v>
+        <v>30.27411547208914</v>
       </c>
       <c r="F11" t="n">
-        <v>98.05133097423931</v>
+        <v>36.89741006966619</v>
       </c>
       <c r="G11" t="n">
-        <v>85.87222431448612</v>
+        <v>24.71830340991301</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23315,16 +23317,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>27.57040216527412</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>61.15392090457311</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>77.86818690112699</v>
+        <v>16.71426599655388</v>
       </c>
       <c r="Y11" t="n">
-        <v>78.15852936978081</v>
+        <v>17.0046084652077</v>
       </c>
     </row>
     <row r="12">
@@ -23729,22 +23731,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>9.191661546453759</v>
+        <v>9.482004015107577</v>
       </c>
       <c r="C17" t="n">
-        <v>9.096038458471753</v>
+        <v>9.386380927125572</v>
       </c>
       <c r="D17" t="n">
-        <v>3.491984286479237</v>
+        <v>3.782326755133056</v>
       </c>
       <c r="E17" t="n">
-        <v>13.26950700688144</v>
+        <v>13.55984947553526</v>
       </c>
       <c r="F17" t="n">
-        <v>19.8928016044585</v>
+        <v>20.18314407311232</v>
       </c>
       <c r="G17" t="n">
-        <v>7.71369494470531</v>
+        <v>8.004037413359129</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23798,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>0.2903424686538187</v>
       </c>
     </row>
     <row r="18">
@@ -23966,22 +23968,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>9.191661546453759</v>
+        <v>9.482004015107577</v>
       </c>
       <c r="C20" t="n">
-        <v>9.096038458471753</v>
+        <v>9.386380927125572</v>
       </c>
       <c r="D20" t="n">
-        <v>3.491984286479237</v>
+        <v>3.782326755133056</v>
       </c>
       <c r="E20" t="n">
-        <v>13.26950700688144</v>
+        <v>13.55984947553526</v>
       </c>
       <c r="F20" t="n">
-        <v>19.8928016044585</v>
+        <v>20.18314407311232</v>
       </c>
       <c r="G20" t="n">
-        <v>7.71369494470531</v>
+        <v>8.004037413359129</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24035,7 +24037,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>0.2903424686538187</v>
       </c>
     </row>
     <row r="21">
@@ -24203,22 +24205,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>9.191661546453759</v>
+        <v>9.482004015107577</v>
       </c>
       <c r="C23" t="n">
-        <v>9.096038458471753</v>
+        <v>9.386380927125572</v>
       </c>
       <c r="D23" t="n">
-        <v>3.491984286479237</v>
+        <v>3.782326755133056</v>
       </c>
       <c r="E23" t="n">
-        <v>13.26950700688144</v>
+        <v>13.55984947553526</v>
       </c>
       <c r="F23" t="n">
-        <v>19.8928016044585</v>
+        <v>20.18314407311232</v>
       </c>
       <c r="G23" t="n">
-        <v>7.71369494470531</v>
+        <v>8.004037413359129</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -24272,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>0.2903424686538187</v>
       </c>
     </row>
     <row r="24">
@@ -24440,22 +24442,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>98.31955546928538</v>
+        <v>26.19627001166145</v>
       </c>
       <c r="C26" t="n">
-        <v>98.22393238130337</v>
+        <v>26.10064692367945</v>
       </c>
       <c r="D26" t="n">
-        <v>92.61987820931085</v>
+        <v>20.49659275168693</v>
       </c>
       <c r="E26" t="n">
-        <v>102.3974009297131</v>
+        <v>30.27411547208914</v>
       </c>
       <c r="F26" t="n">
-        <v>109.0206955272901</v>
+        <v>36.89741006966619</v>
       </c>
       <c r="G26" t="n">
-        <v>96.84158886753693</v>
+        <v>24.71830340991301</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24500,16 +24502,16 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>38.53976671832493</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>72.12328545762392</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>88.8375514541778</v>
+        <v>16.71426599655388</v>
       </c>
       <c r="Y26" t="n">
-        <v>89.12789392283162</v>
+        <v>17.0046084652077</v>
       </c>
     </row>
     <row r="27">
@@ -24677,22 +24679,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>9.482004015107577</v>
+        <v>26.19627001166145</v>
       </c>
       <c r="C29" t="n">
-        <v>9.386380927125572</v>
+        <v>26.10064692367945</v>
       </c>
       <c r="D29" t="n">
-        <v>3.782326755133056</v>
+        <v>20.49659275168693</v>
       </c>
       <c r="E29" t="n">
-        <v>13.55984947553526</v>
+        <v>30.27411547208914</v>
       </c>
       <c r="F29" t="n">
-        <v>20.18314407311232</v>
+        <v>36.89741006966619</v>
       </c>
       <c r="G29" t="n">
-        <v>8.004037413359129</v>
+        <v>24.71830340991301</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24743,10 +24745,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>16.71426599655388</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.2903424686538187</v>
+        <v>17.0046084652077</v>
       </c>
     </row>
     <row r="30">
@@ -24914,22 +24916,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1.477966601748449</v>
+        <v>9.482004015107577</v>
       </c>
       <c r="C32" t="n">
-        <v>1.382343513766443</v>
+        <v>9.386380927125572</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>3.782326755133056</v>
       </c>
       <c r="E32" t="n">
-        <v>5.55581206217613</v>
+        <v>13.55984947553526</v>
       </c>
       <c r="F32" t="n">
-        <v>12.17910665975319</v>
+        <v>20.18314407311232</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>8.004037413359129</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -24983,7 +24985,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>0.2903424686538187</v>
       </c>
     </row>
     <row r="33">
@@ -25151,22 +25153,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1.477966601748449</v>
+        <v>9.482004015107577</v>
       </c>
       <c r="C35" t="n">
-        <v>1.382343513766443</v>
+        <v>9.386380927125572</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>3.782326755133056</v>
       </c>
       <c r="E35" t="n">
-        <v>5.55581206217613</v>
+        <v>13.55984947553526</v>
       </c>
       <c r="F35" t="n">
-        <v>12.17910665975319</v>
+        <v>20.18314407311232</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>8.004037413359129</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -25220,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>0.2903424686538187</v>
       </c>
     </row>
     <row r="36">
@@ -25388,22 +25390,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1.477966601748449</v>
+        <v>9.482004015107577</v>
       </c>
       <c r="C38" t="n">
-        <v>1.382343513766443</v>
+        <v>9.386380927125572</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>3.782326755133056</v>
       </c>
       <c r="E38" t="n">
-        <v>5.55581206217613</v>
+        <v>13.55984947553526</v>
       </c>
       <c r="F38" t="n">
-        <v>12.17910665975319</v>
+        <v>20.18314407311232</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>8.004037413359129</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -25457,7 +25459,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>0.2903424686538187</v>
       </c>
     </row>
     <row r="39">
@@ -25625,22 +25627,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>98.31955546928538</v>
+        <v>26.19627001166145</v>
       </c>
       <c r="C41" t="n">
-        <v>98.22393238130337</v>
+        <v>26.10064692367945</v>
       </c>
       <c r="D41" t="n">
-        <v>92.61987820931085</v>
+        <v>20.49659275168693</v>
       </c>
       <c r="E41" t="n">
-        <v>102.3974009297131</v>
+        <v>30.27411547208914</v>
       </c>
       <c r="F41" t="n">
-        <v>109.0206955272901</v>
+        <v>36.89741006966619</v>
       </c>
       <c r="G41" t="n">
-        <v>96.84158886753693</v>
+        <v>24.71830340991301</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25685,16 +25687,16 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>38.53976671832493</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>72.12328545762392</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>88.8375514541778</v>
+        <v>16.71426599655388</v>
       </c>
       <c r="Y41" t="n">
-        <v>89.12789392283162</v>
+        <v>17.0046084652077</v>
       </c>
     </row>
     <row r="42">
@@ -25862,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>248.3110278280363</v>
+        <v>26.19627001166145</v>
       </c>
       <c r="C44" t="n">
-        <v>248.2154047400543</v>
+        <v>26.10064692367945</v>
       </c>
       <c r="D44" t="n">
-        <v>242.6113505680618</v>
+        <v>20.49659275168693</v>
       </c>
       <c r="E44" t="n">
-        <v>252.388873288464</v>
+        <v>30.27411547208914</v>
       </c>
       <c r="F44" t="n">
-        <v>259.012167886041</v>
+        <v>36.89741006966619</v>
       </c>
       <c r="G44" t="n">
-        <v>246.8330612262878</v>
+        <v>24.71830340991301</v>
       </c>
       <c r="H44" t="n">
-        <v>149.9914723587509</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25916,22 +25918,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>62.17647917280149</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>96.68194678327671</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>188.5312390770758</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>222.1147578163748</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>238.8290238129287</v>
+        <v>16.71426599655388</v>
       </c>
       <c r="Y44" t="n">
-        <v>239.1193662815825</v>
+        <v>17.0046084652077</v>
       </c>
     </row>
     <row r="45">
@@ -25998,16 +26000,16 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>37.56936271335519</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>53.76647169708824</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>53.29289654122624</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>16.75478200268785</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -26020,22 +26022,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>28.01476929029567</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>11.57449867409238</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0.09175819051080225</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>1.493766940555446</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>5.176874590706376</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>7.769947123903734</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26071,25 +26073,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>26.71991039908056</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>79.34531159325664</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>122.1622259395288</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>113.338947570065</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>118.4710278064061</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>78.15248347910517</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>64.68040158531466</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>442298.6122639793</v>
+        <v>476802.5669752733</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>484906.6345328779</v>
+        <v>484785.3004152274</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>484906.6345328779</v>
+        <v>484785.3004152274</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>484906.6345328779</v>
+        <v>484785.3004152274</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>435749.9016258079</v>
+        <v>476802.5669752733</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>484785.3004152274</v>
+        <v>476802.5669752733</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>487417.6439357752</v>
+        <v>484785.3004152274</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>487417.6439357752</v>
+        <v>484785.3004152274</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>487417.6439357752</v>
+        <v>484785.3004152274</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>435749.9016258079</v>
+        <v>476802.5669752733</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>310808.8033689989</v>
+        <v>476802.5669752733</v>
       </c>
     </row>
   </sheetData>
@@ -26320,40 +26322,40 @@
         <v>648009.6978780745</v>
       </c>
       <c r="E2" t="n">
-        <v>589731.4830186394</v>
+        <v>635736.7559670315</v>
       </c>
       <c r="F2" t="n">
         <v>635736.7559670315</v>
       </c>
       <c r="G2" t="n">
-        <v>646542.1793771707</v>
+        <v>646380.4005536368</v>
       </c>
       <c r="H2" t="n">
-        <v>646542.1793771707</v>
+        <v>646380.4005536368</v>
       </c>
       <c r="I2" t="n">
-        <v>646542.1793771707</v>
+        <v>646380.4005536368</v>
       </c>
       <c r="J2" t="n">
-        <v>580999.8688344109</v>
+        <v>635736.7559670315</v>
       </c>
       <c r="K2" t="n">
+        <v>635736.7559670315</v>
+      </c>
+      <c r="L2" t="n">
         <v>646380.4005536368</v>
       </c>
-      <c r="L2" t="n">
-        <v>649890.1919143673</v>
-      </c>
       <c r="M2" t="n">
-        <v>649890.1919143673</v>
+        <v>646380.4005536368</v>
       </c>
       <c r="N2" t="n">
-        <v>649890.1919143673</v>
+        <v>646380.4005536368</v>
       </c>
       <c r="O2" t="n">
-        <v>580999.8688344109</v>
+        <v>635736.7559670315</v>
       </c>
       <c r="P2" t="n">
-        <v>414411.7378253323</v>
+        <v>635736.7559670315</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>255015.021561288</v>
+        <v>303938.1582849465</v>
       </c>
       <c r="F3" t="n">
-        <v>48923.13672365849</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>13603.68677216616</v>
+        <v>13371.4127972431</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>183712.7064230227</v>
+        <v>290566.7454877034</v>
       </c>
       <c r="K3" t="n">
-        <v>119993.1778870007</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>20006.91670285346</v>
+        <v>26742.8255944862</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26402,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>106239.4353289932</v>
+        <v>277195.3326904603</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,40 +26426,40 @@
         <v>369862.6001976897</v>
       </c>
       <c r="E4" t="n">
-        <v>336599.3139330357</v>
+        <v>362857.6090345054</v>
       </c>
       <c r="F4" t="n">
         <v>362857.6090345054</v>
       </c>
       <c r="G4" t="n">
-        <v>369024.9889545867</v>
+        <v>368932.6509285893</v>
       </c>
       <c r="H4" t="n">
-        <v>369024.9889545867</v>
+        <v>368932.6509285893</v>
       </c>
       <c r="I4" t="n">
-        <v>369024.9889545867</v>
+        <v>368932.6509285893</v>
       </c>
       <c r="J4" t="n">
-        <v>331615.5960401139</v>
+        <v>362857.6090345054</v>
       </c>
       <c r="K4" t="n">
+        <v>362857.6090345054</v>
+      </c>
+      <c r="L4" t="n">
         <v>368932.6509285893</v>
       </c>
-      <c r="L4" t="n">
-        <v>370935.9242794078</v>
-      </c>
       <c r="M4" t="n">
-        <v>370935.9242794078</v>
+        <v>368932.6509285893</v>
       </c>
       <c r="N4" t="n">
-        <v>370935.9242794078</v>
+        <v>368932.6509285893</v>
       </c>
       <c r="O4" t="n">
-        <v>331615.5960401139</v>
+        <v>362857.6090345054</v>
       </c>
       <c r="P4" t="n">
-        <v>236532.575679693</v>
+        <v>362857.6090345054</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>26798.5723095449</v>
+        <v>31939.72128607146</v>
       </c>
       <c r="F5" t="n">
         <v>31939.72128607146</v>
       </c>
       <c r="G5" t="n">
-        <v>33369.281715133</v>
+        <v>33344.87291413575</v>
       </c>
       <c r="H5" t="n">
-        <v>33369.281715133</v>
+        <v>33344.87291413575</v>
       </c>
       <c r="I5" t="n">
-        <v>33369.281715133</v>
+        <v>33344.87291413575</v>
       </c>
       <c r="J5" t="n">
-        <v>25876.38880093447</v>
+        <v>31939.72128607146</v>
       </c>
       <c r="K5" t="n">
+        <v>31939.72128607146</v>
+      </c>
+      <c r="L5" t="n">
         <v>33344.87291413575</v>
       </c>
-      <c r="L5" t="n">
-        <v>34017.76433543944</v>
-      </c>
       <c r="M5" t="n">
-        <v>34017.76433543944</v>
+        <v>33344.87291413575</v>
       </c>
       <c r="N5" t="n">
-        <v>34017.76433543944</v>
+        <v>33344.87291413575</v>
       </c>
       <c r="O5" t="n">
-        <v>25876.38880093447</v>
+        <v>31939.72128607146</v>
       </c>
       <c r="P5" t="n">
-        <v>13266.75571120664</v>
+        <v>31939.72128607146</v>
       </c>
     </row>
     <row r="6">
@@ -26528,40 +26530,40 @@
         <v>244519.4976803848</v>
       </c>
       <c r="E6" t="n">
-        <v>-28681.42478522921</v>
+        <v>-62998.73263849189</v>
       </c>
       <c r="F6" t="n">
-        <v>192016.2889227961</v>
+        <v>240939.4256464546</v>
       </c>
       <c r="G6" t="n">
-        <v>230544.2219352849</v>
+        <v>230731.4639136686</v>
       </c>
       <c r="H6" t="n">
-        <v>244147.9087074511</v>
+        <v>244102.8767109117</v>
       </c>
       <c r="I6" t="n">
-        <v>244147.9087074511</v>
+        <v>244102.8767109117</v>
       </c>
       <c r="J6" t="n">
-        <v>39795.17757033982</v>
+        <v>-49627.31984124879</v>
       </c>
       <c r="K6" t="n">
-        <v>124109.698823911</v>
+        <v>240939.4256464546</v>
       </c>
       <c r="L6" t="n">
-        <v>224929.5865966665</v>
+        <v>217360.0511164255</v>
       </c>
       <c r="M6" t="n">
-        <v>244936.50329952</v>
+        <v>244102.8767109117</v>
       </c>
       <c r="N6" t="n">
-        <v>244936.50329952</v>
+        <v>244102.8767109117</v>
       </c>
       <c r="O6" t="n">
-        <v>117268.4486643694</v>
+        <v>-36255.90704400569</v>
       </c>
       <c r="P6" t="n">
-        <v>164612.4064344327</v>
+        <v>240939.4256464546</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26694,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>318.76877695161</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="F2" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="G2" t="n">
-        <v>396.9273063213908</v>
+        <v>396.636963852737</v>
       </c>
       <c r="H2" t="n">
-        <v>396.9273063213908</v>
+        <v>396.636963852737</v>
       </c>
       <c r="I2" t="n">
-        <v>396.9273063213908</v>
+        <v>396.636963852737</v>
       </c>
       <c r="J2" t="n">
-        <v>307.7994123985592</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="K2" t="n">
+        <v>379.9226978561831</v>
+      </c>
+      <c r="L2" t="n">
         <v>396.636963852737</v>
       </c>
-      <c r="L2" t="n">
-        <v>404.6410012660961</v>
-      </c>
       <c r="M2" t="n">
-        <v>404.6410012660961</v>
+        <v>396.636963852737</v>
       </c>
       <c r="N2" t="n">
-        <v>404.6410012660961</v>
+        <v>396.636963852737</v>
       </c>
       <c r="O2" t="n">
-        <v>307.7994123985592</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="P2" t="n">
-        <v>157.8079400398083</v>
+        <v>379.9226978561831</v>
       </c>
     </row>
     <row r="3">
@@ -26914,13 +26916,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>318.76877695161</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="F2" t="n">
-        <v>61.15392090457311</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>17.0046084652077</v>
+        <v>16.71426599655388</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,13 +26931,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>229.6408830287784</v>
+        <v>363.2084318596292</v>
       </c>
       <c r="K2" t="n">
-        <v>149.9914723587509</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>25.00864587856682</v>
+        <v>33.42853199310775</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26944,7 +26946,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>132.7992941612414</v>
+        <v>346.4941658630754</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27151,13 +27153,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>318.76877695161</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="K2" t="n">
-        <v>61.15392090457311</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>17.0046084652077</v>
+        <v>16.71426599655388</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27168,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>229.6408830287784</v>
+        <v>363.2084318596292</v>
       </c>
       <c r="P2" t="n">
-        <v>149.9914723587509</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -28087,22 +28089,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>318.76877695161</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="C11" t="n">
-        <v>318.76877695161</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="D11" t="n">
-        <v>318.76877695161</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="E11" t="n">
-        <v>318.76877695161</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="F11" t="n">
-        <v>318.76877695161</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="G11" t="n">
-        <v>318.76877695161</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="H11" t="n">
         <v>307.7994123985592</v>
@@ -28147,16 +28149,16 @@
         <v>254.489886823085</v>
       </c>
       <c r="V11" t="n">
-        <v>318.76877695161</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>318.76877695161</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
-        <v>318.76877695161</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="Y11" t="n">
-        <v>318.76877695161</v>
+        <v>379.9226978561831</v>
       </c>
     </row>
     <row r="12">
@@ -28561,22 +28563,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>396.9273063213908</v>
+        <v>396.636963852737</v>
       </c>
       <c r="C17" t="n">
-        <v>396.9273063213908</v>
+        <v>396.636963852737</v>
       </c>
       <c r="D17" t="n">
-        <v>396.9273063213908</v>
+        <v>396.636963852737</v>
       </c>
       <c r="E17" t="n">
-        <v>396.9273063213908</v>
+        <v>396.636963852737</v>
       </c>
       <c r="F17" t="n">
-        <v>396.9273063213908</v>
+        <v>396.636963852737</v>
       </c>
       <c r="G17" t="n">
-        <v>396.9273063213908</v>
+        <v>396.636963852737</v>
       </c>
       <c r="H17" t="n">
         <v>307.7994123985592</v>
@@ -28630,7 +28632,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
-        <v>396.9273063213908</v>
+        <v>396.636963852737</v>
       </c>
     </row>
     <row r="18">
@@ -28798,22 +28800,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>396.9273063213908</v>
+        <v>396.636963852737</v>
       </c>
       <c r="C20" t="n">
-        <v>396.9273063213908</v>
+        <v>396.636963852737</v>
       </c>
       <c r="D20" t="n">
-        <v>396.9273063213908</v>
+        <v>396.636963852737</v>
       </c>
       <c r="E20" t="n">
-        <v>396.9273063213908</v>
+        <v>396.636963852737</v>
       </c>
       <c r="F20" t="n">
-        <v>396.9273063213908</v>
+        <v>396.636963852737</v>
       </c>
       <c r="G20" t="n">
-        <v>396.9273063213908</v>
+        <v>396.636963852737</v>
       </c>
       <c r="H20" t="n">
         <v>307.7994123985592</v>
@@ -28867,7 +28869,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
-        <v>396.9273063213908</v>
+        <v>396.636963852737</v>
       </c>
     </row>
     <row r="21">
@@ -29035,22 +29037,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>396.9273063213908</v>
+        <v>396.636963852737</v>
       </c>
       <c r="C23" t="n">
-        <v>396.9273063213908</v>
+        <v>396.636963852737</v>
       </c>
       <c r="D23" t="n">
-        <v>396.9273063213908</v>
+        <v>396.636963852737</v>
       </c>
       <c r="E23" t="n">
-        <v>396.9273063213908</v>
+        <v>396.636963852737</v>
       </c>
       <c r="F23" t="n">
-        <v>396.9273063213908</v>
+        <v>396.636963852737</v>
       </c>
       <c r="G23" t="n">
-        <v>396.9273063213908</v>
+        <v>396.636963852737</v>
       </c>
       <c r="H23" t="n">
         <v>307.7994123985592</v>
@@ -29104,7 +29106,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y23" t="n">
-        <v>396.9273063213908</v>
+        <v>396.636963852737</v>
       </c>
     </row>
     <row r="24">
@@ -29272,22 +29274,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>307.7994123985592</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="C26" t="n">
-        <v>307.7994123985592</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="D26" t="n">
-        <v>307.7994123985592</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="E26" t="n">
-        <v>307.7994123985592</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="F26" t="n">
-        <v>307.7994123985592</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="G26" t="n">
-        <v>307.7994123985592</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="H26" t="n">
         <v>307.7994123985592</v>
@@ -29332,16 +29334,16 @@
         <v>254.489886823085</v>
       </c>
       <c r="V26" t="n">
-        <v>307.7994123985592</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
-        <v>307.7994123985592</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
-        <v>307.7994123985592</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="Y26" t="n">
-        <v>307.7994123985592</v>
+        <v>379.9226978561831</v>
       </c>
     </row>
     <row r="27">
@@ -29509,22 +29511,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>396.636963852737</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="C29" t="n">
-        <v>396.636963852737</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="D29" t="n">
-        <v>396.636963852737</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="E29" t="n">
-        <v>396.636963852737</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="F29" t="n">
-        <v>396.636963852737</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="G29" t="n">
-        <v>396.636963852737</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="H29" t="n">
         <v>307.7994123985592</v>
@@ -29575,10 +29577,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X29" t="n">
-        <v>396.636963852737</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="Y29" t="n">
-        <v>396.636963852737</v>
+        <v>379.9226978561831</v>
       </c>
     </row>
     <row r="30">
@@ -29746,22 +29748,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>404.6410012660961</v>
+        <v>396.636963852737</v>
       </c>
       <c r="C32" t="n">
-        <v>404.6410012660961</v>
+        <v>396.636963852737</v>
       </c>
       <c r="D32" t="n">
-        <v>400.41929060787</v>
+        <v>396.636963852737</v>
       </c>
       <c r="E32" t="n">
-        <v>404.6410012660961</v>
+        <v>396.636963852737</v>
       </c>
       <c r="F32" t="n">
-        <v>404.6410012660961</v>
+        <v>396.636963852737</v>
       </c>
       <c r="G32" t="n">
-        <v>404.6410012660961</v>
+        <v>396.636963852737</v>
       </c>
       <c r="H32" t="n">
         <v>307.7994123985592</v>
@@ -29815,7 +29817,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y32" t="n">
-        <v>396.9273063213908</v>
+        <v>396.636963852737</v>
       </c>
     </row>
     <row r="33">
@@ -29983,22 +29985,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>404.6410012660961</v>
+        <v>396.636963852737</v>
       </c>
       <c r="C35" t="n">
-        <v>404.6410012660961</v>
+        <v>396.636963852737</v>
       </c>
       <c r="D35" t="n">
-        <v>400.41929060787</v>
+        <v>396.636963852737</v>
       </c>
       <c r="E35" t="n">
-        <v>404.6410012660961</v>
+        <v>396.636963852737</v>
       </c>
       <c r="F35" t="n">
-        <v>404.6410012660961</v>
+        <v>396.636963852737</v>
       </c>
       <c r="G35" t="n">
-        <v>404.6410012660961</v>
+        <v>396.636963852737</v>
       </c>
       <c r="H35" t="n">
         <v>307.7994123985592</v>
@@ -30052,7 +30054,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
-        <v>396.9273063213908</v>
+        <v>396.636963852737</v>
       </c>
     </row>
     <row r="36">
@@ -30220,22 +30222,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>404.6410012660961</v>
+        <v>396.636963852737</v>
       </c>
       <c r="C38" t="n">
-        <v>404.6410012660961</v>
+        <v>396.636963852737</v>
       </c>
       <c r="D38" t="n">
-        <v>400.41929060787</v>
+        <v>396.636963852737</v>
       </c>
       <c r="E38" t="n">
-        <v>404.6410012660961</v>
+        <v>396.636963852737</v>
       </c>
       <c r="F38" t="n">
-        <v>404.6410012660961</v>
+        <v>396.636963852737</v>
       </c>
       <c r="G38" t="n">
-        <v>404.6410012660961</v>
+        <v>396.636963852737</v>
       </c>
       <c r="H38" t="n">
         <v>307.7994123985592</v>
@@ -30289,7 +30291,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y38" t="n">
-        <v>396.9273063213908</v>
+        <v>396.636963852737</v>
       </c>
     </row>
     <row r="39">
@@ -30457,22 +30459,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>307.7994123985592</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="C41" t="n">
-        <v>307.7994123985592</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="D41" t="n">
-        <v>307.7994123985592</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="E41" t="n">
-        <v>307.7994123985592</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="F41" t="n">
-        <v>307.7994123985592</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="G41" t="n">
-        <v>307.7994123985592</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="H41" t="n">
         <v>307.7994123985592</v>
@@ -30517,16 +30519,16 @@
         <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
-        <v>307.7994123985592</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>307.7994123985592</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
-        <v>307.7994123985592</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="Y41" t="n">
-        <v>307.7994123985592</v>
+        <v>379.9226978561831</v>
       </c>
     </row>
     <row r="42">
@@ -30694,25 +30696,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>157.8079400398083</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="C44" t="n">
-        <v>157.8079400398083</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="D44" t="n">
-        <v>157.8079400398083</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="E44" t="n">
-        <v>157.8079400398083</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="F44" t="n">
-        <v>157.8079400398083</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="G44" t="n">
-        <v>157.8079400398083</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="H44" t="n">
-        <v>157.8079400398083</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
         <v>85.48824505609757</v>
@@ -30748,22 +30750,22 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
-        <v>157.8079400398083</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>157.8079400398083</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
-        <v>157.8079400398083</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>157.8079400398083</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>157.8079400398083</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="Y44" t="n">
-        <v>157.8079400398083</v>
+        <v>379.9226978561831</v>
       </c>
     </row>
     <row r="45">
@@ -30830,16 +30832,16 @@
         <v>157.7484451748619</v>
       </c>
       <c r="U45" t="n">
-        <v>157.8079400398083</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V45" t="n">
-        <v>157.8079400398083</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W45" t="n">
-        <v>157.8079400398083</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X45" t="n">
-        <v>157.8079400398083</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y45" t="n">
         <v>157.8079400398083</v>
@@ -30852,22 +30854,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>157.8079400398083</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>157.8079400398083</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8079400398083</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>157.8079400398083</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>157.8079400398083</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>157.8079400398083</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
         <v>148.1113806425979</v>
@@ -30903,25 +30905,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
-        <v>157.8079400398083</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
-        <v>157.8079400398083</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
-        <v>157.8079400398083</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
-        <v>157.8079400398083</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>157.8079400398083</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>157.8079400398083</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>157.8079400398083</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
